--- a/data/financial_statements/soci/C.xlsx
+++ b/data/financial_statements/soci/C.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -122,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -479,2225 +593,2270 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN34"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>30444000000</v>
+      </c>
+      <c r="C2">
         <v>25864000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>23304000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>21466000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>19026000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>19406000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>19738000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>21695000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>19063000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>20123000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>23275000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>26378000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>24926000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>26110000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>26520000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>25893000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>23977000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>24757000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>24354000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>24032000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>22041000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>22798000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>22191000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>21932000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>21212000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>20934000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>20668000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>20495000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>21357000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>21633000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>22521000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>22764000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>21058000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>23014000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>23040000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>23797000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>21821000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>21856000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>24646000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>24578000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>0.6001</v>
+      </c>
+      <c r="C3">
         <v>0.3328</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.1807</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-0.0106</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-0.0019</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-0.0356</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>-0.152</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-0.1775</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.2352</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.2293</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-0.1224</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.0187</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.0396</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.0547</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.08890000000000001</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.0774</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.0878</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.0859</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.0975</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.0958</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.0391</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.089</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.0737</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.0701</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>-0.0068</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>-0.0323</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>-0.0823</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>-0.0997</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>0.0142</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>-0.06</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>-0.0225</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>-0.0434</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>-0.035</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>0.053</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>-0.06519999999999999</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>-0.0318</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>-0.0235</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>0.167</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>0.0386</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>-0.0167</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>12438000000</v>
+      </c>
+      <c r="C4">
         <v>7356000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>3666000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>2280000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2009000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1959000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1985000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>2028000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1361000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>2821000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>3509000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>5647000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>5767000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>7536000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>7762000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>7317000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>6853000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>6368000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>5885000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>5160000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>4537000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>4379000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>4036000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>3566000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>3278000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>3174000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>3120000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>2940000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>2901000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>2941000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>3051000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>3028000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>3159000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>3325000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>3615000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>3591000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>3737000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>3952000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>4158000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>4330000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>18006000000</v>
+      </c>
+      <c r="C5">
         <v>18508000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>19638000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>19186000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>17017000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>17447000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>17753000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>19667000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>17702000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>17302000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>19766000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>20731000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>19159000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>18574000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>18758000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>18576000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>17124000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>18389000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>18469000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>18872000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>17504000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>18419000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>18155000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>18366000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>17934000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>17760000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>17548000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>17555000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>18456000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>18692000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>19470000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>19736000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>17899000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>19689000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>19425000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>20206000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>18084000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>17904000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>20488000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>20248000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>14830000000</v>
+      </c>
+      <c r="C6">
         <v>14114000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>13667000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>13920000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>13067000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>11585000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>10405000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>9358000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>12261000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>13348000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>18657000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>17603000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>13457000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>12552000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>12593000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>12564000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>11818000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>12285000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>12524000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>12782000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>12405000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>12416000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>12477000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>12385000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>12834000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>12140000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>11778000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>12568000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>13648000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>12505000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>12576000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>12799000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>16439000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>14705000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>17251000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>14123000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>14364000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>13638000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>14173000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>14747000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>3176000000</v>
+      </c>
+      <c r="C7">
         <v>4394000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>5971000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>5266000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3950000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>5862000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>7348000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>10309000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>5441000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>3954000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1109000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>3128000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>5702000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>6022000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>6165000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>6012000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>5306000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>6104000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>5945000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>6090000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>5099000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>6003000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>5678000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>5981000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>5100000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>5620000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>5770000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>4987000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>4808000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>6187000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>6894000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>6937000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>1460000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>4984000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>2174000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>6083000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>3720000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>4266000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>6315000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>5501000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>86000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>94000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>90000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>97000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>31000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>13000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>69000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>11000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>30000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>69000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>55000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>3176000000</v>
+      </c>
+      <c r="C9">
         <v>4394000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>5971000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>5266000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>3950000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>5862000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>7348000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>10309000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>5441000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>3954000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>1109000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>3128000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>5702000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>6022000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>6165000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>6012000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>5306000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>6104000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>5945000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>6090000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>5099000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>6003000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>5678000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>5981000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>5100000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>5620000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>5770000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>4987000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>4808000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>6187000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>6894000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>6937000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>1460000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>4984000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>2174000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>6083000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>3720000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>4266000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>6315000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>5501000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>640000000</v>
+      </c>
+      <c r="C10">
         <v>879000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1182000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>941000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>771000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1193000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1155000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>2332000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1116000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>777000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>52000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>580000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>703000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>1079000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>1373000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>1275000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>1001000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>1471000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>1444000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>1441000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>23864000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>1866000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>1795000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>1863000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>1509000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>1733000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>1723000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>1479000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>1403000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>1881000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>2036000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>2120000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>1077000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>2068000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>1921000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>2131000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>1409000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>1080000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>2127000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>1570000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>2536000000</v>
+      </c>
+      <c r="C11">
         <v>3515000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>4789000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>4325000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>3179000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>4669000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>6193000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>7977000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>4325000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>3177000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1057000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>2548000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>4999000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>4943000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>4792000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>4737000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>4305000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>4633000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>4501000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>4649000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>-18765000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>4137000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>3883000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>4118000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>3591000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>3887000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>4047000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>3508000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>3405000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>4306000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>4858000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>4817000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>383000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>2916000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>253000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>3952000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>2311000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>3186000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>4188000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>3931000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
         <v>305000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>273000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>608000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>292000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>294000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>915000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>253000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>312000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>563000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>346000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>321000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>1007000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>367000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>557000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>325000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>368000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>369000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>278000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>375000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>250000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>369000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>230000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>266000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>128000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>270000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>128000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>100000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>124000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>71000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>110000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>9000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>4000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>21000000</v>
+      </c>
+      <c r="C13">
         <v>30000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>21000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>17000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>6000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>24000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>10000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>33000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>22000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>24000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>-6000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>16000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>15000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>10000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>25000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>-16000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>3000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>26000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>22000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>19000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>-1000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>32000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>10000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>15000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>17000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>26000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>5000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>25000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>5000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>18000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>42000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>38000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>59000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>50000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>45000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>50000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>51000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>36000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>90000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>2513000000</v>
+      </c>
+      <c r="C14">
         <v>3174000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>4274000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>4306000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>2565000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>4352000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>5899000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>7942000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>3394000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>3146000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>803000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>2536000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>4416000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>4913000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>4453000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>4389000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>3306000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>4622000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>4123000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>4620000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>-19450000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>3808000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>3504000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>4090000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>3204000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>3562000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>3623000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>3251000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>2966000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>4061000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>4580000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>4642000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>74000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>2713000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>81000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>3820000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>2371000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>3117000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>4173000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>3804000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>1.63</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>2.2</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>2.02</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1.47</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>2.17</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>2.85</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>3.62</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>2.1</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>1.4</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>0.51</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1.05</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>2.15</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>2.07</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>1.95</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>1.87</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>1.65</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>1.73</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>1.63</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>1.68</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>-7.15</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>1.42</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>1.28</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>1.35</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>1.14</v>
-      </c>
-      <c r="Z15">
-        <v>1.24</v>
       </c>
       <c r="AA15">
         <v>1.24</v>
       </c>
       <c r="AB15">
+        <v>1.24</v>
+      </c>
+      <c r="AC15">
         <v>1.1</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>1.02</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>1.36</v>
-      </c>
-      <c r="AE15">
-        <v>1.51</v>
       </c>
       <c r="AF15">
         <v>1.51</v>
       </c>
       <c r="AG15">
+        <v>1.51</v>
+      </c>
+      <c r="AH15">
         <v>0.06</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>1.07</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>0.06</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>1.23</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>0.85</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>1.01</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>1.38</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>1.23</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>1.63</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>2.19</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>2.02</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1.46</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>2.15</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>2.85</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>3.62</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>2.08</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>1.4</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>0.5</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>1.05</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>2.15</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>2.07</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>1.95</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>1.87</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>1.64</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>1.73</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>1.63</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>1.68</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>-7.15</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>1.42</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>1.28</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>1.35</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>1.14</v>
-      </c>
-      <c r="Z16">
-        <v>1.24</v>
       </c>
       <c r="AA16">
         <v>1.24</v>
       </c>
       <c r="AB16">
+        <v>1.24</v>
+      </c>
+      <c r="AC16">
         <v>1.1</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>1.02</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>1.35</v>
-      </c>
-      <c r="AE16">
-        <v>1.51</v>
       </c>
       <c r="AF16">
         <v>1.51</v>
       </c>
       <c r="AG16">
+        <v>1.51</v>
+      </c>
+      <c r="AH16">
         <v>0.06</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>1.07</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>0.06</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>1.23</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>0.85</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>1</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>1.34</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>1.23</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>1936900000</v>
+      </c>
+      <c r="C17">
         <v>1936800000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1941500000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>1971700000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>2033000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>2009300000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>2056500000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>2082000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>2085800000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>2081800000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>2081700000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>2097900000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>2249200000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>2220800000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>2286100000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>2340400000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>2493300000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>2479800000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>2530900000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>2561600000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>2698500000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>2683600000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>2739100000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>2765300000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>2888100000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>2879900000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>2915800000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>2943000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>3004000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>2993300000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>3020000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>3034200000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>3031600000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>3029500000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>3033800000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>3037400000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>3035800000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>3034300000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>3040700000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>3040100000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>1955900000</v>
+      </c>
+      <c r="C18">
         <v>1955100000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>1958100000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1988200000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>2033000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>2026200000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>2073000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2096600000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>2085800000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>2094300000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>2084300000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>2113700000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>2249200000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>2237100000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>2289000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>2342400000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>2493300000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>2481400000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>2532300000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>2563000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>2698500000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>2683700000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>2739200000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>2765500000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>2888100000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>2880100000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>2915900000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>2943100000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>3007700000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>2996900000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>3025000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>3039300000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>3037000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>3034800000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>3038300000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>3043300000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>3041600000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>3040900000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>3046300000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>3044700000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>0.5914</v>
+      </c>
+      <c r="C19">
         <v>0.7156</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.8427</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.8938</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.8944</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.8991</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.8994</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.9065</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.9286</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.8598</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>0.8492</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0.7859</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0.7685999999999999</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>0.7114</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>0.7073</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>0.7174</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>0.7141999999999999</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>0.7428</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>0.7584</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>0.7853</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>0.7942</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>0.8079</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0.8181</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>0.8374</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>0.8455</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>0.8484</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>0.849</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>0.8566</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>0.8642</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>0.8641</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>0.8645</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>0.867</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>0.85</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>0.8555</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>0.8431</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>0.8491</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>0.8287</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>0.8192</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>0.8313</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>0.8238</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2816,1471 +2975,1507 @@
       <c r="AN20">
         <v>0</v>
       </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>0.1043</v>
+      </c>
+      <c r="C21">
         <v>0.1699</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.2562</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.2453</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.2076</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.3021</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.3723</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.4752</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.2854</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.1965</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.0476</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.1186</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.2288</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.2306</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.2325</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.2322</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.2213</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.2466</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.2441</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.2534</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.2313</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.2633</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.2559</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>0.2727</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.2404</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.2685</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>0.2792</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.2433</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.2251</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.286</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>0.3061</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>0.3047</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.0693</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>0.2166</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0.0944</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>0.2556</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>0.1705</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>0.1952</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>0.2562</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>0.2238</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>0.0825</v>
+      </c>
+      <c r="C22">
         <v>0.1227</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.1834</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.2006</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.1348</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.2243</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.2989</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.3661</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.178</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.1563</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.0345</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.0961</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.1772</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0.1882</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.1679</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.1695</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.1379</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.1867</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.1693</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.1922</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>-0.8824</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.167</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.1579</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>0.1865</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>0.151</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>0.1702</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>0.1753</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>0.1586</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>0.1389</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.1877</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>0.2034</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>0.2039</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>0.0035</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>0.1179</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>0.0035</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>0.1605</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>0.1087</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>0.1426</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>0.1693</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>0.1548</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>2536000000</v>
+      </c>
+      <c r="C23">
         <v>3515000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>4789000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>4325000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>3179000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>4669000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>6193000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>7977000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>4325000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>3177000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>1057000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>2548000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>4999000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>4943000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>4792000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>4737000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>4305000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>4633000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>4501000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>4649000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>-18765000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>4137000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>3883000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>4118000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>3591000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>3887000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>4047000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>3508000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>3405000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>4306000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>4858000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>4817000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>383000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>2916000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>253000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>3952000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>2311000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>3186000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>4188000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>3931000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>-2000000</v>
+      </c>
+      <c r="C24">
         <v>-6000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>-221000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>-2000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>-1000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>10000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>-2000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>6000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>-7000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>-1000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>-18000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>-4000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>-15000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>17000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>-2000000</v>
-      </c>
-      <c r="Q24">
-        <v>-8000000</v>
       </c>
       <c r="R24">
         <v>-8000000</v>
       </c>
       <c r="S24">
+        <v>-8000000</v>
+      </c>
+      <c r="T24">
         <v>15000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>-7000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>-109000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>-5000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>21000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>-18000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>-3000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>-30000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>-23000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>-2000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>-45000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>-10000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>6000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>-5000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>-1000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>-16000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>-22000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>37000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>181000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>92000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>30000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>-33000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>2534000000</v>
+      </c>
+      <c r="C25">
         <v>3509000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>4568000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>4323000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>3179000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>4668000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>6203000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>7975000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>4331000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>3170000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>1056000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>2530000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>4995000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>4928000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>4809000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>4735000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>4297000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>4625000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>4516000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>4642000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>-18874000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>4132000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>3904000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>4100000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>3588000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>3857000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>4024000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>3506000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>3360000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>4296000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>4864000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>4812000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>382000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>2900000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>231000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>3989000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>2492000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>3278000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>4218000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>3898000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>1.3093</v>
+      </c>
+      <c r="C26">
         <v>1.64</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>2.32</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>2.03</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>1.54</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>2.17</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>2.86</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>3.64</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>1.93</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>1.37</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>0.38</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>1.07</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>2.17</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>2.09</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>1.94</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>1.88</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>1.65</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>1.74</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>1.62</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>1.68</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>-6.99</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>1.42</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>1.27</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>1.36</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>1.13</v>
-      </c>
-      <c r="Z26">
-        <v>1.25</v>
       </c>
       <c r="AA26">
         <v>1.25</v>
       </c>
       <c r="AB26">
+        <v>1.25</v>
+      </c>
+      <c r="AC26">
         <v>1.11</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>1.05</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>1.36</v>
-      </c>
-      <c r="AE26">
-        <v>1.51</v>
       </c>
       <c r="AF26">
         <v>1.51</v>
       </c>
       <c r="AG26">
+        <v>1.51</v>
+      </c>
+      <c r="AH26">
         <v>0.06</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>0.89</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>0.03</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>1.23</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>0.7</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>0.98</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>1.34</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>1.24</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>1.16</v>
+      </c>
+      <c r="C27">
         <v>1.63</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>2.3</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>2.02</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>1.53</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>2.15</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>2.84</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>3.62</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>1.93</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>1.36</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>0.38</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>1.06</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>2.15</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>2.08</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>1.94</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>1.87</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>1.65</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>1.74</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>1.62</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>1.68</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>-6.99</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>1.42</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>1.27</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>1.36</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>1.13</v>
-      </c>
-      <c r="Z27">
-        <v>1.25</v>
       </c>
       <c r="AA27">
         <v>1.25</v>
       </c>
       <c r="AB27">
+        <v>1.25</v>
+      </c>
+      <c r="AC27">
         <v>1.11</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>1.04</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>1.36</v>
-      </c>
-      <c r="AE27">
-        <v>1.51</v>
       </c>
       <c r="AF27">
         <v>1.51</v>
       </c>
       <c r="AG27">
+        <v>1.51</v>
+      </c>
+      <c r="AH27">
         <v>0.07000000000000001</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>0.88</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>0.03</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>1.22</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>0.7</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>0.98</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>1.33</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>1.24</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
         <v>-0.11</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>-0.001</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>-0.0004</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
       <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>0.0048</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-0.001</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>0.0038</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-0.0033</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>-0.0005</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>-0.01</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>-0.0009</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>-0.01</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>0.01</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>-0.0009</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>-0.004</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>-0.0032</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>0.01</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>-0.0027</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>-0.0381</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>-0.0019</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>0.01</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>-0.01</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>0.0007</v>
-      </c>
-      <c r="Z28">
-        <v>-0.01</v>
       </c>
       <c r="AA28">
         <v>-0.01</v>
       </c>
       <c r="AB28">
+        <v>-0.01</v>
+      </c>
+      <c r="AC28">
         <v>-0.0007</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>-0.017</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>-0.0033</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>0.002</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>-0.0016</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>0.009299999999999999</v>
-      </c>
-      <c r="AH28">
-        <v>-0.01</v>
       </c>
       <c r="AI28">
         <v>-0.01</v>
       </c>
       <c r="AJ28">
+        <v>-0.01</v>
+      </c>
+      <c r="AK28">
         <v>0.01</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>0.06</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>0.03</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>0.01</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
         <v>-0.11</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>-0.001</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-0.0005</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
       <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>0.0049</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-0.001</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>0.0038</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-0.0034</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>-0.0005</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>-0.01</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>-0.0009</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>-0.01</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>0.01</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>-0.0009</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>-0.0072</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>-0.0032</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>0.01</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>-0.0027</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>-0.0381</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>-0.0019</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>0.01</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>-0.01</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>0.0007</v>
-      </c>
-      <c r="Z29">
-        <v>-0.01</v>
       </c>
       <c r="AA29">
         <v>-0.01</v>
       </c>
       <c r="AB29">
+        <v>-0.01</v>
+      </c>
+      <c r="AC29">
         <v>-0.0007</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>-0.017</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>-0.0033</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>0.002</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>-0.0016</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>0.009299999999999999</v>
-      </c>
-      <c r="AH29">
-        <v>-0.01</v>
       </c>
       <c r="AI29">
         <v>-0.01</v>
       </c>
       <c r="AJ29">
+        <v>-0.01</v>
+      </c>
+      <c r="AK29">
         <v>0.01</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>0.06</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>0.03</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>0.01</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>1.3083</v>
+      </c>
+      <c r="C30">
         <v>1.8118</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>2.3528</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>2.1925</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>1.6638</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>2.3232</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>3.0163</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>3.8305</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>2.0795</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>1.5227</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>0.5073</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>1.206</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>2.3093</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>2.219</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>2.1036</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>2.0232</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>1.7899</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>1.8651</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>1.7843</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>1.8121</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>-6.9446</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>1.5397</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>1.4253</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>1.4827</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>1.2744</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>1.3393</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>1.3801</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>1.1913</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>1.1379</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>1.4352</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>1.6106</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>1.5859</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>0.1279</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>0.9573</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>0.0761</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>1.3133</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>0.8244</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>1.0803</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>1.3872</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>1.2822</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>1.2956</v>
+      </c>
+      <c r="C31">
         <v>1.7948</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>2.3329</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>2.1743</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>1.7339</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>2.3038</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>2.9923</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>3.8038</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>2.0982</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>1.5136</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>0.5066000000000001</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>1.197</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>2.3299</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>2.2029</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>2.1009</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>2.0214</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>1.793</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>1.8639</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>1.7834</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>1.8112</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>-6.9444</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>1.5397</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>1.4252</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>1.4826</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>1.2746</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>1.3392</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>1.38</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>1.1913</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>1.1379</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>1.4335</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>1.6079</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>1.5833</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>0.1278</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>0.9556</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>0.076</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>1.3107</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>0.8225</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>1.078</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>1.3846</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>1.2803</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
         <v>1955100000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>1958100000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>1988200000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>2001600000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>2026200000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>2073000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>2096600000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>2095700000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>2094300000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>2084300000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>2113700000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>2166800000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>2237100000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>2289000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>2342400000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>2402700000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>2481400000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>2532300000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>2563000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>2606200000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>2683700000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>2739200000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>2765300000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>2814200000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>2880100000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>2915900000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>2943100000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>2969500000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>2996900000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>3025000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>3039300000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>3031500000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>3034800000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>3083300000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>3043300000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>3034600000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>3040900000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>3046300000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>3044700000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4399,126 +4594,132 @@
       <c r="AN33">
         <v>0</v>
       </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
         <v>-0.0348</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.4409</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>-0.631</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.1085</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>1.8356</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>0.0185</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>1.0693</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.0857</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>-0.1514</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>0.2718</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>-0.968</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>0.9035</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>0.09180000000000001</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>-0.0053</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>-1.4527</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>0.2872</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>0.8784</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>0.056</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>0.2894</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>-0.2411</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0.7962</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>-0.8364</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>-0.1392</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>1.1974</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>0.3471</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>1.0453</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>-0.0263</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>-0.0762</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>1.064</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>0.7217</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>0.0919</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>0.4898</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>0.4373</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>-0.1578</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>1.2438</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>0.1803</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>0.6516999999999999</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>0.8133</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>1.018</v>
       </c>
     </row>
